--- a/4 курс/8 сем/stega/course_work/2022варианты.xlsx
+++ b/4 курс/8 сем/stega/course_work/2022варианты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem.gromov/Documents/StudFiles/4 курс/8 сем/stega/course_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E41416A-E6E0-8046-9C43-1A5B1FC25B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0AA8EC-B0A1-834C-8F89-4C9CA39B66D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="-17240" windowWidth="51120" windowHeight="28220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИБС-81" sheetId="2" r:id="rId1"/>
@@ -285,13 +285,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3345,7 +3345,7 @@
   <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D6" sqref="D6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
